--- a/evaluation/results/isolation_forest/augmented/shift_2/split_1/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/shift_2/split_1/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8843416370106761</v>
+        <v>0.2117437722419929</v>
       </c>
       <c r="C2">
-        <v>0.2318840579710145</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="D2">
-        <v>0.5714285714285714</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="E2">
-        <v>0.3298969072164948</v>
+        <v>0.101419878296146</v>
       </c>
       <c r="F2">
-        <v>0.4419889502762431</v>
+        <v>0.2166377816291161</v>
       </c>
       <c r="G2">
-        <v>0.540962288686606</v>
+        <v>0.5579399141630901</v>
       </c>
       <c r="H2">
-        <v>0.7360888175494916</v>
+        <v>0.79303772070626</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>440</v>
       </c>
       <c r="K2">
-        <v>481</v>
+        <v>94</v>
       </c>
       <c r="L2">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9756592292089249</v>
+        <v>0.9690721649484536</v>
       </c>
       <c r="C2">
-        <v>0.900749063670412</v>
+        <v>0.1760299625468165</v>
       </c>
       <c r="D2">
-        <v>0.9367088607594937</v>
+        <v>0.2979397781299525</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.2318840579710145</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="C3">
-        <v>0.5714285714285714</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="D3">
-        <v>0.3298969072164948</v>
+        <v>0.101419878296146</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8843416370106761</v>
+        <v>0.2117437722419929</v>
       </c>
       <c r="C4">
-        <v>0.8843416370106761</v>
+        <v>0.2117437722419929</v>
       </c>
       <c r="D4">
-        <v>0.8843416370106761</v>
+        <v>0.2117437722419929</v>
       </c>
       <c r="E4">
-        <v>0.8843416370106761</v>
+        <v>0.2117437722419929</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6037716435899697</v>
+        <v>0.5114178029043344</v>
       </c>
       <c r="C5">
-        <v>0.7360888175494917</v>
+        <v>0.5344435527019797</v>
       </c>
       <c r="D5">
-        <v>0.6333028839879943</v>
+        <v>0.1996798282130492</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9386028149835486</v>
+        <v>0.9234695950650539</v>
       </c>
       <c r="C6">
-        <v>0.8843416370106761</v>
+        <v>0.2117437722419929</v>
       </c>
       <c r="D6">
-        <v>0.9064762367395578</v>
+        <v>0.2881487510919692</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>481</v>
+        <v>94</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
